--- a/Financials/Yearly/PFE_YR_FIN.xlsx
+++ b/Financials/Yearly/PFE_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC492535-664F-4A81-B554-BC8DAF22F38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PFE" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,140 +686,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>53647000</v>
+      </c>
+      <c r="E8" s="3">
         <v>52546000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52824000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48851000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49605000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51584000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54657000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61035000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11128000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10838000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11925000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9573000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9524000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9470000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9821000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39249000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42519000</v>
+      </c>
+      <c r="E10" s="3">
         <v>41708000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40899000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39278000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40081000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42114000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44836000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21786000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,35 +843,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8006000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7657000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7872000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7690000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8393000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6678000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14824000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16423000</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,63 +900,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4445000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2594000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6058000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3304000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1932000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5628000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11709000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4893000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4758000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4056000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3728000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4039000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4599000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10284000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11009000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -914,62 +974,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>41432000</v>
+      </c>
+      <c r="E17" s="3">
         <v>39557000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43820000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38522000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36879000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35667000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42262000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48369000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>12215000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12989000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9004000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10329000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12726000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15917000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12395000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12666000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,143 +1048,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E20" s="3">
         <v>586000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>533000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-166000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>872000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1213000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1893000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>496000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>19585000</v>
+      </c>
+      <c r="E21" s="3">
         <v>19844000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15294000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15320000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19135000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23540000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21943000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22188000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1270000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1186000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1199000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1360000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1414000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3046000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1681000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>11885000</v>
+      </c>
+      <c r="E23" s="3">
         <v>12305000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8351000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8964000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12238000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15716000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11242000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11481000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1502000</v>
+      </c>
+      <c r="E24" s="3">
         <v>351000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1123000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1990000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3119000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4306000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2221000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3621000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1142,63 +1225,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>10383000</v>
+      </c>
+      <c r="E26" s="3">
         <v>11954000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7228000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6974000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9119000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11410000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9021000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7860000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>10346000</v>
+      </c>
+      <c r="E27" s="3">
         <v>11906000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7197000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6947000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9086000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11378000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8991000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7818000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1223,36 +1315,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E29" s="3">
         <v>9402000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>17000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>12000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>48000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>10623000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>5577000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2539000</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1277,9 +1375,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1304,63 +1405,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-986000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-586000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-533000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>166000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-872000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1213000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1893000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-496000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>11152000</v>
+      </c>
+      <c r="E33" s="3">
         <v>21308000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7214000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6959000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9134000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22001000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14568000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10357000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1385,68 +1495,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>11152000</v>
+      </c>
+      <c r="E35" s="3">
         <v>21308000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7214000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6959000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9134000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22001000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14568000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10357000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1458,8 +1577,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1471,251 +1591,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1342000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2595000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3641000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3343000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2183000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10081000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3182000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>17694000</v>
+      </c>
+      <c r="E42" s="3">
         <v>18650000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15255000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19649000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32779000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>30225000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22318000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23321000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>8025000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8221000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8225000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8176000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8401000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9357000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22131000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13058000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>7508000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7578000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6783000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7513000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5663000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6166000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6076000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6610000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>15560000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5350000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6091000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4825000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5408000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8313000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33607000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14697000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>49926000</v>
+      </c>
+      <c r="E46" s="3">
         <v>41141000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38949000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43804000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55595000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>56244000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>64831000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>60817000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>2767000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7015000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7116000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15999000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17518000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16406000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14149000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9814000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>13385000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13865000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13318000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27532000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23524000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12397000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26426000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15921000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>88622000</v>
+      </c>
+      <c r="E49" s="3">
         <v>104693000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>107097000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>88598000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>77235000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81904000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145917000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>182863000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1740,9 +1888,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1767,36 +1918,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4722000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5083000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5135000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5214000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5456000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5150000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9886000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5697000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1821,36 +1978,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>159422000</v>
+      </c>
+      <c r="E54" s="3">
         <v>171797000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>171615000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>167381000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>167566000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>172101000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>185798000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>188002000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1862,8 +2025,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1875,170 +2039,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>4674000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4656000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4536000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3620000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3210000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3234000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2921000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3678000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>8831000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9953000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10688000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20318000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10282000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6027000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12848000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4016000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>18353000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15818000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15891000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15621000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13236000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14105000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32982000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21215000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>31858000</v>
+      </c>
+      <c r="E60" s="3">
         <v>30427000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31115000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29399000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21587000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23366000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29186000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28909000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>32909000</v>
+      </c>
+      <c r="E61" s="3">
         <v>33538000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31398000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28740000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31541000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30462000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31036000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34926000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>30897000</v>
+      </c>
+      <c r="E62" s="3">
         <v>36176000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49262000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44245000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42816000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41653000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48837000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41546000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2063,9 +2246,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,9 +2276,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2117,36 +2306,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>96015000</v>
+      </c>
+      <c r="E66" s="3">
         <v>100489000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112071000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102661000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>96265000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95794000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104538000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105812000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2158,8 +2353,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2184,9 +2380,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2211,36 +2410,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E70" s="3">
         <v>21000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>24000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>26000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>29000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>33000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>39000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>45000</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2265,36 +2470,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>89554000</v>
+      </c>
+      <c r="E72" s="3">
         <v>85291000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>71774000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>71993000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72176000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>69732000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54240000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46210000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2319,9 +2530,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2346,9 +2560,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2373,36 +2590,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>63388000</v>
+      </c>
+      <c r="E76" s="3">
         <v>71287000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>59520000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>64694000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>71272000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>76274000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>81221000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82145000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2427,68 +2650,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>11152000</v>
+      </c>
+      <c r="E81" s="3">
         <v>21308000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7214000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6959000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9134000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22001000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14568000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10357000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2500,35 +2732,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>6384000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6269000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5757000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5157000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5537000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6410000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7655000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9026000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2553,9 +2789,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2580,9 +2819,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,9 +2849,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2634,9 +2879,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2661,36 +2909,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>16470000</v>
+        <v>15827000</v>
       </c>
       <c r="E89" s="3">
-        <v>15901000</v>
+        <v>16802000</v>
       </c>
       <c r="F89" s="3">
+        <v>16193000</v>
+      </c>
+      <c r="G89" s="3">
         <v>14687000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17084000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17684000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16746000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20240000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2702,35 +2956,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2217000</v>
+        <v>-2042000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1999000</v>
+        <v>-1956000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1496000</v>
+        <v>-1823000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1583000</v>
+        <v>-1397000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1465000</v>
+        <v>-1199000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1419000</v>
+        <v>-1206000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1327000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1882000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2755,9 +3013,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2782,36 +3043,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-4741000</v>
+        <v>4525000</v>
       </c>
       <c r="E94" s="3">
-        <v>-7811000</v>
+        <v>-4740000</v>
       </c>
       <c r="F94" s="3">
+        <v>-7791000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2980000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5654000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10544000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6154000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1843000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2823,35 +3090,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-7978000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7659000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7317000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-6940000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-6609000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-6580000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6534000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-6234000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2876,9 +3147,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2903,9 +3177,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2930,88 +3207,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-13035000</v>
+        <v>-20441000</v>
       </c>
       <c r="E100" s="3">
-        <v>-8921000</v>
+        <v>-13350000</v>
       </c>
       <c r="F100" s="3">
+        <v>-9228000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-10409000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10187000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14975000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15999000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20607000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E101" s="3">
         <v>53000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-215000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-83000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-63000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-29000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1254000</v>
+        <v>-205000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1046000</v>
+        <v>-1235000</v>
       </c>
       <c r="F102" s="3">
+        <v>-1041000</v>
+      </c>
+      <c r="G102" s="3">
         <v>298000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1160000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7898000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6899000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1447000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/PFE_YR_FIN.xlsx
+++ b/Financials/Yearly/PFE_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC492535-664F-4A81-B554-BC8DAF22F38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="PFE" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>PFE</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,7 +709,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,7 +739,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +769,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,7 +799,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,7 +873,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -935,7 +903,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -976,7 +944,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +974,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1004,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1018,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1048,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1102,15 +1070,15 @@
       <c r="I21" s="3">
         <v>23540000</v>
       </c>
-      <c r="J21" s="3">
-        <v>21943000</v>
+      <c r="J21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="3">
         <v>22188000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1108,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1138,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1168,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1198,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1228,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1258,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1378,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1408,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1470,7 +1438,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1468,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -1530,12 +1498,12 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1593,7 +1561,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1591,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1653,7 +1621,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,7 +1651,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1713,7 +1681,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1743,7 +1711,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1773,7 +1741,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1803,7 +1771,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -1833,7 +1801,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +1831,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1923,7 +1891,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1953,7 +1921,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,7 +1951,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +1981,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2041,7 +2009,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2071,7 +2039,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2101,7 +2069,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2131,7 +2099,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2161,7 +2129,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2191,7 +2159,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -2221,7 +2189,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2279,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -2341,7 +2309,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2385,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2475,7 +2443,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2505,7 +2473,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2535,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2565,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2595,7 +2563,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -2625,7 +2593,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2655,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2658,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -2720,7 +2688,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2734,7 +2702,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2756,15 +2724,15 @@
       <c r="I83" s="3">
         <v>6410000</v>
       </c>
-      <c r="J83" s="3">
-        <v>7655000</v>
+      <c r="J83" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K83" s="3">
         <v>9026000</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2794,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2914,7 +2882,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
@@ -2944,7 +2912,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2958,7 +2926,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -2988,7 +2956,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3018,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,7 +3016,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -3070,15 +3038,15 @@
       <c r="I94" s="3">
         <v>-10544000</v>
       </c>
-      <c r="J94" s="3">
-        <v>6154000</v>
+      <c r="J94" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K94" s="3">
         <v>1843000</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3092,7 +3060,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3122,7 +3090,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3152,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3182,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3212,7 +3180,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -3234,15 +3202,15 @@
       <c r="I100" s="3">
         <v>-14975000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-15999000</v>
+      <c r="J100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K100" s="3">
         <v>-20607000</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3264,15 +3232,15 @@
       <c r="I101" s="3">
         <v>-63000</v>
       </c>
-      <c r="J101" s="3">
-        <v>-2000</v>
+      <c r="J101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K101" s="3">
         <v>-29000</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
